--- a/matlab/logDataProcess/ipb42-52.xlsx
+++ b/matlab/logDataProcess/ipb42-52.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-7290" yWindow="1425" windowWidth="30945" windowHeight="14340"/>
+    <workbookView xWindow="-11490" yWindow="1725" windowWidth="30945" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -88,22 +88,22 @@
     <t>IPB42_10us-80ns_50W_8-10-17_day-01.csv</t>
   </si>
   <si>
-    <t>081317</t>
-  </si>
-  <si>
-    <t>081217</t>
-  </si>
-  <si>
-    <t>100ns-325-temp_day-01.csv</t>
-  </si>
-  <si>
-    <t>10us-35v_day-01.csv</t>
-  </si>
-  <si>
-    <t>100ns-325v</t>
-  </si>
-  <si>
-    <t>10us-35v</t>
+    <t>10us-35v-814_day-01.csv</t>
+  </si>
+  <si>
+    <t>081417</t>
+  </si>
+  <si>
+    <t>081517</t>
+  </si>
+  <si>
+    <t>100ns-325v-815_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-35v-75w</t>
+  </si>
+  <si>
+    <t>100ns-325v-50w</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1141,17 +1141,17 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
